--- a/database/industries/felezat/fameli/product/quarterly.xlsx
+++ b/database/industries/felezat/fameli/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C99B846-EE0A-4B9A-BE80-9D6BF435CA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032EDC24-FA46-445B-868C-D2077EBA41D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -704,12 +704,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,7 +724,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -773,7 +773,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -822,7 +822,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -874,7 +874,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -913,7 +913,7 @@
         <v>-48778</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>14528887</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>246131</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>314427</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1134,8 +1134,8 @@
       <c r="J16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>17</v>
+      <c r="K16" s="9">
+        <v>13523</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>17</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>77251</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
@@ -1678,8 +1678,8 @@
       <c r="J30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>17</v>
+      <c r="K30" s="9">
+        <v>1285712</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>17</v>
@@ -1691,7 +1691,7 @@
         <v>5588658</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
@@ -1717,8 +1717,8 @@
       <c r="J31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>17</v>
+      <c r="K31" s="11">
+        <v>14759</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>17</v>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
@@ -1756,8 +1756,8 @@
       <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>17</v>
+      <c r="K32" s="9">
+        <v>80961</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1795,8 @@
       <c r="J33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>17</v>
+      <c r="K33" s="11">
+        <v>5638</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>17</v>
@@ -1808,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="J34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>17</v>
+      <c r="K34" s="9">
+        <v>19270</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>17</v>
@@ -1847,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="J35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>17</v>
+      <c r="K35" s="11">
+        <v>16500</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>17</v>
@@ -1886,7 +1886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>45</v>
       </c>
@@ -1912,8 +1912,8 @@
       <c r="J36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>17</v>
+      <c r="K36" s="9">
+        <v>0</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>17</v>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>46</v>
       </c>
@@ -1951,8 +1951,8 @@
       <c r="J37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>17</v>
+      <c r="K37" s="11">
+        <v>8099</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>17</v>
@@ -1964,7 +1964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>47</v>
       </c>
@@ -1990,8 +1990,8 @@
       <c r="J38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>17</v>
+      <c r="K38" s="9">
+        <v>0</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>48</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>49</v>
       </c>
@@ -2068,8 +2068,8 @@
       <c r="J40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>17</v>
+      <c r="K40" s="9">
+        <v>4150</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>17</v>
@@ -2081,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>50</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>51</v>
       </c>
@@ -2146,8 +2146,8 @@
       <c r="J42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>17</v>
+      <c r="K42" s="9">
+        <v>0</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>17</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>52</v>
       </c>
@@ -2185,8 +2185,8 @@
       <c r="J43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>17</v>
+      <c r="K43" s="11">
+        <v>41</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>17</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>53</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>14596033</v>
       </c>
       <c r="K44" s="13">
-        <v>13573741</v>
+        <v>15022394</v>
       </c>
       <c r="L44" s="13">
         <v>15243283</v>
@@ -2235,7 +2235,7 @@
         <v>20709945</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2265,7 +2265,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2280,7 +2280,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2332,7 +2332,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>15</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>46281</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>793059</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>192105</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>24</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>63755</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>56</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>57</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>26</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>27</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>28</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>59</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>60</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>61</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>61</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>29</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>63</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>64</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>33</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>35</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>37</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>38</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>39</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>5588658</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>53</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>6688684</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3552,7 +3552,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3567,7 +3567,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3582,7 +3582,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>65</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3634,7 +3634,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>211713</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>18</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>9655144</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>19</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>2115290</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>20</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>2275296</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>21</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>7561731</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>22</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>848454</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>23</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>151213574</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>25</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>55</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>56</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>57</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>58</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>26</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>3082258</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>27</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>28</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>59</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>61</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>29</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>30</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>31</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>63</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>64</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>33</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>35</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>37</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>38</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>39</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>788235</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>53</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>177751695</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4778,7 +4778,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4793,7 +4793,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4808,7 +4808,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>67</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4860,7 +4860,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>15</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>4574512</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>18</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>4194241529</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>19</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>2667254</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>20</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>11844023</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>37434311881</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>22</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>451785942</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>23</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>24</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>2371791609</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>25</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>55</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>56</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>57</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>58</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>26</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>6942022523</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>27</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>28</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>59</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>61</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>29</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>30</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>31</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>63</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>64</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>33</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>35</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>37</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>38</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>39</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>141042</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5967,7 +5967,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5982,7 +5982,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5997,7 +5997,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>73</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -6049,7 +6049,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>15</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>18</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>-1776433</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>19</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>-1826650</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>20</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>-1354574</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>21</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>-321884</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>22</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>-389617</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>23</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>24</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>-75552853</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>25</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>26</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>-822668</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>27</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>28</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>61</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>29</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>30</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>33</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>35</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>37</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>38</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>39</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="14" t="s">
         <v>53</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>-82044679</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6920,7 +6920,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6935,7 +6935,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6950,7 +6950,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>74</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -7002,7 +7002,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>15</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>211713</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>18</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>7878711</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>19</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>288640</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>20</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>920722</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>21</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>7239847</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>458837</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>23</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>24</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>75660721</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>25</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>26</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>2259590</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>27</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>28</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>61</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>29</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>30</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>31</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>33</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>35</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>37</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>38</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>39</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>788235</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>53</v>
       </c>
